--- a/data/case1/9/Q_device_6.xlsx
+++ b/data/case1/9/Q_device_6.xlsx
@@ -56,32 +56,32 @@
   <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
     <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.030029132304080934</v>
+        <v>-0.021562891158830255</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.030011262691944478</v>
+        <v>-0.021525888562684184</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.017801499626378347</v>
+        <v>0.029042946240322089</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.01780149963745737</v>
+        <v>-0.029042946257872463</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.063719474494102674</v>
+        <v>-0.043819312237455006</v>
       </c>
       <c r="B3" s="0">
-        <v>0.063719474484815797</v>
+        <v>0.043819312219303096</v>
       </c>
     </row>
   </sheetData>
